--- a/docs/Descripcion_Formal.xlsx
+++ b/docs/Descripcion_Formal.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540" activeTab="3"/>
+    <workbookView windowWidth="29100" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Conexiones con peso" sheetId="1" r:id="rId1"/>
     <sheet name="Grados" sheetId="2" r:id="rId2"/>
     <sheet name="Matriz_Incidencia" sheetId="3" r:id="rId3"/>
     <sheet name="Matriz_Adiaciencia" sheetId="4" r:id="rId4"/>
+    <sheet name="Diametro" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="215">
   <si>
     <t>Nodo</t>
   </si>
@@ -306,6 +307,9 @@
 </t>
   </si>
   <si>
+    <t>Diametro</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -315,6 +319,9 @@
     <t>45 x 2 =</t>
   </si>
   <si>
+    <t>diam(I, AI)=</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
@@ -667,6 +674,9 @@
   </si>
   <si>
     <t>a45</t>
+  </si>
+  <si>
+    <t>diam(10)</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1372,15 +1382,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1933,22 +1946,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2443,19 +2456,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="5" max="5" width="19.0625" customWidth="1"/>
     <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:11">
       <c r="B1" s="4" t="s">
         <v>87</v>
       </c>
@@ -2468,78 +2482,88 @@
       <c r="G1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="H1" s="8"/>
+      <c r="J1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="2:11">
       <c r="B2" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>92</v>
+      <c r="E2" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="11">
+        <v>94</v>
+      </c>
+      <c r="H2" s="10">
         <v>90</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>95</v>
+      <c r="E3" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>97</v>
+      <c r="E4" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>99</v>
+      <c r="E5" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>101</v>
+      <c r="E6" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C7" s="6">
         <v>4</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>103</v>
+      <c r="E7" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -2549,19 +2573,19 @@
       <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>104</v>
+      <c r="E8" s="9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>106</v>
+      <c r="E9" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -2571,129 +2595,129 @@
       <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>107</v>
+      <c r="E10" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>109</v>
+      <c r="E11" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>111</v>
+      <c r="E12" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C13" s="6">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>113</v>
+      <c r="E13" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>115</v>
+      <c r="E14" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C15" s="6">
         <v>3</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>117</v>
+      <c r="E15" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>119</v>
+      <c r="E16" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>121</v>
+      <c r="E17" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>123</v>
+      <c r="E18" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C19" s="6">
         <v>3</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>125</v>
+      <c r="E19" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C20" s="6">
         <v>4</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>127</v>
+      <c r="E20" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>129</v>
+      <c r="E21" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -2703,63 +2727,63 @@
       <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>130</v>
+      <c r="E22" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>132</v>
+      <c r="E23" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C24" s="6">
         <v>3</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>134</v>
+      <c r="E24" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C25" s="6">
         <v>4</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>136</v>
+      <c r="E25" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C26" s="6">
         <v>2</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>138</v>
+      <c r="E26" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>140</v>
+      <c r="E27" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -2769,19 +2793,19 @@
       <c r="C28" s="6">
         <v>2</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>141</v>
+      <c r="E28" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C29" s="6">
         <v>3</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>143</v>
+      <c r="E29" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -2791,63 +2815,63 @@
       <c r="C30" s="6">
         <v>1</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>144</v>
+      <c r="E30" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>146</v>
+      <c r="E31" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C32" s="6">
         <v>4</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>148</v>
+      <c r="E32" s="9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C33" s="6">
         <v>3</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>150</v>
+      <c r="E33" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C34" s="6">
         <v>3</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>152</v>
+      <c r="E34" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C35" s="6">
         <v>2</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>154</v>
+      <c r="E35" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2857,8 +2881,8 @@
       <c r="C36" s="6">
         <v>2</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>155</v>
+      <c r="E36" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -2868,66 +2892,66 @@
       <c r="C37" s="6">
         <v>1</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>156</v>
+      <c r="E37" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38"/>
+        <v>159</v>
+      </c>
       <c r="C38" s="7">
         <f>SUM(C2:C37)</f>
         <v>90</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>158</v>
+      <c r="E38" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="10" t="s">
-        <v>159</v>
+      <c r="E39" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="10" t="s">
-        <v>160</v>
+      <c r="E40" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="10" t="s">
-        <v>161</v>
+      <c r="E41" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="10" t="s">
-        <v>162</v>
+      <c r="E42" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="10" t="s">
-        <v>163</v>
+      <c r="E43" s="9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="10" t="s">
-        <v>164</v>
+      <c r="E44" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="10" t="s">
-        <v>165</v>
+      <c r="E45" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="47" ht="20.4" spans="5:5">
-      <c r="E47" s="12" t="s">
-        <v>166</v>
+      <c r="E47" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2939,8 +2963,8 @@
   <sheetPr/>
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2948,144 +2972,144 @@
     <row r="1" spans="1:46">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:46">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3225,7 +3249,7 @@
     </row>
     <row r="3" spans="1:46">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -3365,7 +3389,7 @@
     </row>
     <row r="4" spans="1:46">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -3505,7 +3529,7 @@
     </row>
     <row r="5" spans="1:46">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -3645,7 +3669,7 @@
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -3785,7 +3809,7 @@
     </row>
     <row r="7" spans="1:46">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -4065,7 +4089,7 @@
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -4345,7 +4369,7 @@
     </row>
     <row r="11" spans="1:46">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -4485,7 +4509,7 @@
     </row>
     <row r="12" spans="1:46">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -4625,7 +4649,7 @@
     </row>
     <row r="13" spans="1:46">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -4765,7 +4789,7 @@
     </row>
     <row r="14" spans="1:46">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -4905,7 +4929,7 @@
     </row>
     <row r="15" spans="1:46">
       <c r="A15" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -5045,7 +5069,7 @@
     </row>
     <row r="16" spans="1:46">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -5185,7 +5209,7 @@
     </row>
     <row r="17" spans="1:46">
       <c r="A17" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -5325,7 +5349,7 @@
     </row>
     <row r="18" spans="1:46">
       <c r="A18" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -5465,7 +5489,7 @@
     </row>
     <row r="19" spans="1:46">
       <c r="A19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -5605,7 +5629,7 @@
     </row>
     <row r="20" spans="1:46">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -5745,7 +5769,7 @@
     </row>
     <row r="21" spans="1:46">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -6025,7 +6049,7 @@
     </row>
     <row r="23" spans="1:46">
       <c r="A23" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -6165,7 +6189,7 @@
     </row>
     <row r="24" spans="1:46">
       <c r="A24" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -6305,7 +6329,7 @@
     </row>
     <row r="25" spans="1:46">
       <c r="A25" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -6445,7 +6469,7 @@
     </row>
     <row r="26" spans="1:46">
       <c r="A26" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -6585,7 +6609,7 @@
     </row>
     <row r="27" spans="1:46">
       <c r="A27" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -6865,7 +6889,7 @@
     </row>
     <row r="29" spans="1:46">
       <c r="A29" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -7145,7 +7169,7 @@
     </row>
     <row r="31" spans="1:46">
       <c r="A31" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -7285,7 +7309,7 @@
     </row>
     <row r="32" spans="1:46">
       <c r="A32" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -7425,7 +7449,7 @@
     </row>
     <row r="33" spans="1:46">
       <c r="A33" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -7565,7 +7589,7 @@
     </row>
     <row r="34" spans="1:46">
       <c r="A34" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -7705,7 +7729,7 @@
     </row>
     <row r="35" spans="1:46">
       <c r="A35" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -8134,7 +8158,7 @@
   <sheetPr/>
   <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="Z44" sqref="Z44"/>
     </sheetView>
   </sheetViews>
@@ -8143,106 +8167,106 @@
     <row r="1" spans="1:37">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>56</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>73</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>85</v>
@@ -8253,7 +8277,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -8366,7 +8390,7 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -8479,7 +8503,7 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -8592,7 +8616,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -8705,7 +8729,7 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -8818,7 +8842,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -9044,7 +9068,7 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -9270,7 +9294,7 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -9383,7 +9407,7 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -9496,7 +9520,7 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -9609,7 +9633,7 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -9722,7 +9746,7 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -9835,7 +9859,7 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -9948,7 +9972,7 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -10061,7 +10085,7 @@
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -10174,7 +10198,7 @@
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -10287,7 +10311,7 @@
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -10400,7 +10424,7 @@
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -10626,7 +10650,7 @@
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -10739,7 +10763,7 @@
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -10852,7 +10876,7 @@
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -10965,7 +10989,7 @@
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -11078,7 +11102,7 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -11304,7 +11328,7 @@
     </row>
     <row r="29" spans="1:37">
       <c r="A29" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -11530,7 +11554,7 @@
     </row>
     <row r="31" spans="1:37">
       <c r="A31" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -11643,7 +11667,7 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -11756,7 +11780,7 @@
     </row>
     <row r="33" spans="1:37">
       <c r="A33" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -11869,7 +11893,7 @@
     </row>
     <row r="34" spans="1:37">
       <c r="A34" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -11982,7 +12006,7 @@
     </row>
     <row r="35" spans="1:37">
       <c r="A35" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -12317,6 +12341,28 @@
       </c>
       <c r="AK37" s="1">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
